--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D3C544-C024-4E68-AFBD-76A47E83B976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF07DC4C-802D-45F2-B246-5C4E97FC7504}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AF07DC4C-802D-45F2-B246-5C4E97FC7504}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBF68E-3F3F-49E5-A303-D91E3BC02B85}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F15ADF-F674-499A-9023-0FE2ACBDA104}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
